--- a/changes/9mm-barrels.xlsx
+++ b/changes/9mm-barrels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E98DA3C-F17A-401C-A0C8-A8DCB64936E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D78423-EEC1-4643-8227-FD0698F65332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>new</t>
   </si>
@@ -126,6 +126,48 @@
   </si>
   <si>
     <t>HK MP5 9x19 225mm Barrel</t>
+  </si>
+  <si>
+    <t>kak_value_line_light_tapered_melonite_ar9_76mm_9x19_barrel</t>
+  </si>
+  <si>
+    <t>KAK Value Line Light Tapered Melonite AR9 3" 9x19</t>
+  </si>
+  <si>
+    <t>cmmg_mk9_216mm_9x19_barrel</t>
+  </si>
+  <si>
+    <t>CmmG Mk9 8.5" 9x19</t>
+  </si>
+  <si>
+    <t>cmmg_mk9_229mm_9x19_barrel</t>
+  </si>
+  <si>
+    <t>CmmG Mk9 9" 9x19</t>
+  </si>
+  <si>
+    <t>cmmg_mk9_406mm_9x19_c_barrel</t>
+  </si>
+  <si>
+    <t>CmmG Mk9 16" 9x19 Carbine Length</t>
+  </si>
+  <si>
+    <t>cmmg_mk9_406mm_9x19_r_barrel</t>
+  </si>
+  <si>
+    <t>CmmG Mk9 16" 9x19 Rifle Length</t>
+  </si>
+  <si>
+    <t>cmmg_mk9_406mm_9x19_m_barrel</t>
+  </si>
+  <si>
+    <t>CmmG Mk9 16" 9x19 Mid Length</t>
+  </si>
+  <si>
+    <t>cmmg_mk9_127mm_9x19_barrel</t>
+  </si>
+  <si>
+    <t>CmmG Mk9 5" 9x19</t>
   </si>
 </sst>
 </file>
@@ -970,7 +1012,7 @@
   <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,7 +1172,7 @@
         <v>1200</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" ref="N4:N9" si="0">C4-D4*20-E4*0.8-F4*0.6-H4*5+I4*10+J4/300</f>
+        <f t="shared" ref="N4:N17" si="0">C4-D4*20-E4*0.8-F4*0.6-H4*5+I4*10+J4/300</f>
         <v>8.4333333333333353</v>
       </c>
       <c r="P4">
@@ -1140,7 +1182,7 @@
         <v>4.5</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S9" si="1">ROUND(Q4*0.02+P4+R4, 2)</f>
+        <f t="shared" ref="S4:S17" si="1">ROUND(Q4*0.02+P4+R4, 2)</f>
         <v>0.15</v>
       </c>
     </row>
@@ -1371,121 +1413,365 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="N10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1">
+        <v>7</v>
+      </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="H11" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-0.3</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-300</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="M11" s="1">
+        <v>750</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.7000000000000011</v>
+      </c>
+      <c r="P11">
+        <v>0.06</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4</v>
+      </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="H12" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-0.12</v>
+      </c>
+      <c r="J12" s="1">
+        <v>-225</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="M12" s="1">
+        <v>800</v>
+      </c>
+      <c r="N12" s="1">
+        <f>C12-D12*20-E12*0.8-F12*0.6-H12*5+I12*10+J12/300</f>
+        <v>-7.0000000000000009</v>
+      </c>
+      <c r="P12">
+        <v>0.06</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
+      </c>
+      <c r="S12">
+        <f>ROUND(Q12*0.02+P12+R12, 2)</f>
+        <v>0.16</v>
+      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="H13" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="I13" s="1">
+        <v>-0.04</v>
+      </c>
+      <c r="J13" s="1">
+        <v>-90</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="M13" s="1">
+        <v>900</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.7000000000000011</v>
+      </c>
+      <c r="P13">
+        <v>0.06</v>
+      </c>
+      <c r="Q13">
+        <v>8.5</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="1"/>
+        <v>0.23</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="H14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>-70</v>
+      </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="M14" s="1">
+        <v>950</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.5333333333333332</v>
+      </c>
+      <c r="P14">
+        <v>0.06</v>
+      </c>
+      <c r="Q14">
+        <v>9</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="1"/>
+        <v>0.24</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-6</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-4</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-4</v>
+      </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="H15" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>200</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="M15" s="1">
+        <v>1200</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.5833333333333313</v>
+      </c>
+      <c r="P15">
+        <v>0.06</v>
+      </c>
+      <c r="Q15">
+        <v>16</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="1"/>
+        <v>0.38</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-7</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>-5</v>
+      </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="H16" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>200</v>
+      </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="M16" s="1">
+        <v>1200</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.3833333333333337</v>
+      </c>
+      <c r="P16">
+        <v>0.06</v>
+      </c>
+      <c r="Q16">
+        <v>16</v>
+      </c>
+      <c r="R16">
+        <v>0.01</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="1"/>
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-8</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E17" s="1">
+        <v>-6</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-6</v>
+      </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="H17" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>200</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M17" s="1">
+        <v>1200</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.1833333333333327</v>
+      </c>
+      <c r="P17">
+        <v>0.06</v>
+      </c>
+      <c r="Q17">
+        <v>16</v>
+      </c>
+      <c r="R17">
+        <v>0.02</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1501,10 +1787,10 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1520,7 +1806,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1536,7 +1822,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1552,34 +1838,34 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="14:14" x14ac:dyDescent="0.25">

--- a/changes/9mm-barrels.xlsx
+++ b/changes/9mm-barrels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D78423-EEC1-4643-8227-FD0698F65332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60509013-E923-4629-9738-E6B71CF60B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>new</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>CmmG Mk9 5" 9x19</t>
+  </si>
+  <si>
+    <t>pp19_barrel</t>
+  </si>
+  <si>
+    <t>PP19 Standard</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1018,7 @@
   <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1172,7 +1178,7 @@
         <v>1200</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" ref="N4:N17" si="0">C4-D4*20-E4*0.8-F4*0.6-H4*5+I4*10+J4/300</f>
+        <f t="shared" ref="N4:N19" si="0">C4-D4*20-E4*0.8-F4*0.6-H4*5+I4*10+J4/300</f>
         <v>8.4333333333333353</v>
       </c>
       <c r="P4">
@@ -1182,7 +1188,7 @@
         <v>4.5</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S17" si="1">ROUND(Q4*0.02+P4+R4, 2)</f>
+        <f t="shared" ref="S4:S19" si="1">ROUND(Q4*0.02+P4+R4, 2)</f>
         <v>0.15</v>
       </c>
     </row>
@@ -1785,10 +1791,56 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="N18" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N19" s="1"/>
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>100</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.166666666666667</v>
+      </c>
+      <c r="P19">
+        <v>0.06</v>
+      </c>
+      <c r="Q19">
+        <v>9</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="1"/>
+        <v>0.24</v>
+      </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>

--- a/changes/9mm-barrels.xlsx
+++ b/changes/9mm-barrels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60509013-E923-4629-9738-E6B71CF60B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98ADFD44-10FD-40BF-96BF-E76A3A0EE102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,10 +1321,10 @@
         <v>0.24</v>
       </c>
       <c r="E8" s="1">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="F8" s="1">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="N8" s="1">
         <f t="shared" si="0"/>
-        <v>5.4333333333333327</v>
+        <v>2.6333333333333342</v>
       </c>
       <c r="P8">
         <v>0.06</v>
@@ -1370,10 +1370,10 @@
         <v>0.17</v>
       </c>
       <c r="E9" s="1">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F9" s="1">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="N9" s="1">
         <f t="shared" si="0"/>
-        <v>4.9166666666666661</v>
+        <v>2.1166666666666663</v>
       </c>
       <c r="P9">
         <v>0.06</v>

--- a/changes/9mm-barrels.xlsx
+++ b/changes/9mm-barrels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98ADFD44-10FD-40BF-96BF-E76A3A0EE102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3F3ED0-260F-45CB-832B-423C39C791FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>new</t>
   </si>
@@ -174,6 +174,18 @@
   </si>
   <si>
     <t>PP19 Standard</t>
+  </si>
+  <si>
+    <t>steyr_aug_para_9x19_420mm_barrel</t>
+  </si>
+  <si>
+    <t>Steyr AUG Para 9x19 420mm</t>
+  </si>
+  <si>
+    <t>steyr_aug_para_9x19_325mm_threaded_barrel</t>
+  </si>
+  <si>
+    <t>Steyr AUG Para 9x19 325mm Threaded</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1030,7 @@
   <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1178,7 +1190,7 @@
         <v>1200</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" ref="N4:N19" si="0">C4-D4*20-E4*0.8-F4*0.6-H4*5+I4*10+J4/300</f>
+        <f t="shared" ref="N4:N22" si="0">C4-D4*20-E4*0.8-F4*0.6-H4*5+I4*10+J4/300</f>
         <v>8.4333333333333353</v>
       </c>
       <c r="P4">
@@ -1188,7 +1200,7 @@
         <v>4.5</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S19" si="1">ROUND(Q4*0.02+P4+R4, 2)</f>
+        <f t="shared" ref="S4:S22" si="1">ROUND(Q4*0.02+P4+R4, 2)</f>
         <v>0.15</v>
       </c>
     </row>
@@ -1856,39 +1868,108 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="N20" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="E21" s="1">
+        <v>-13</v>
+      </c>
+      <c r="F21" s="1">
+        <v>-15</v>
+      </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="H21" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>145</v>
+      </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="M21" s="1">
+        <v>2000</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="0"/>
+        <v>14.833333333333332</v>
+      </c>
+      <c r="P21">
+        <v>0.06</v>
+      </c>
+      <c r="Q21">
+        <v>16.535399999999999</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="1"/>
+        <v>0.39</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="1">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="E22" s="1">
+        <v>-10</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-8</v>
+      </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="H22" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="I22" s="1">
+        <v>-0.05</v>
+      </c>
+      <c r="J22" s="1">
+        <v>105</v>
+      </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="M22" s="1">
+        <v>3000</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="0"/>
+        <v>11.499999999999998</v>
+      </c>
+      <c r="P22">
+        <v>0.06</v>
+      </c>
+      <c r="Q22">
+        <v>12.795299999999999</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N23" s="1"/>

--- a/changes/9mm-barrels.xlsx
+++ b/changes/9mm-barrels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3F3ED0-260F-45CB-832B-423C39C791FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816851E2-1A8C-45F2-967B-A9D42BF874A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1030,7 +1030,7 @@
   <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,7 +1123,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="E3">
         <v>-9</v>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="N3" s="1">
         <f>C3-D3*20-E3*0.8-F3*0.6-H3*5+I3*10+J3/300</f>
-        <v>13.399999999999999</v>
+        <v>13.2</v>
       </c>
       <c r="P3">
         <v>0.06</v>
@@ -1154,8 +1154,8 @@
         <v>4.4881900000000003</v>
       </c>
       <c r="S3">
-        <f>ROUND(Q3*0.02+P3+R3, 2)</f>
-        <v>0.15</v>
+        <f>ROUND(Q3*0.023+P3+R3, 2)</f>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="E4">
         <v>-7</v>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="N4" s="1">
         <f t="shared" ref="N4:N22" si="0">C4-D4*20-E4*0.8-F4*0.6-H4*5+I4*10+J4/300</f>
-        <v>8.4333333333333353</v>
+        <v>8.2333333333333343</v>
       </c>
       <c r="P4">
         <v>0.06</v>
@@ -1200,8 +1200,8 @@
         <v>4.5</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S22" si="1">ROUND(Q4*0.02+P4+R4, 2)</f>
-        <v>0.15</v>
+        <f t="shared" ref="S4:S22" si="1">ROUND(Q4*0.023+P4+R4, 2)</f>
+        <v>0.16</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -1215,7 +1215,7 @@
         <v>-2</v>
       </c>
       <c r="D5">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="E5">
         <v>-11</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="N5" s="1">
         <f t="shared" si="0"/>
-        <v>12.233333333333334</v>
+        <v>11.833333333333336</v>
       </c>
       <c r="P5">
         <v>0.06</v>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="S5">
         <f t="shared" si="1"/>
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -1261,7 +1261,7 @@
         <v>-25</v>
       </c>
       <c r="D6">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="E6">
         <v>-10</v>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="N6" s="1">
         <f t="shared" si="0"/>
-        <v>-12.600000000000001</v>
+        <v>-13.600000000000001</v>
       </c>
       <c r="P6">
         <v>0.06</v>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="S6">
         <f t="shared" si="1"/>
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="E8" s="1">
         <v>-3</v>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="N8" s="1">
         <f t="shared" si="0"/>
-        <v>2.6333333333333342</v>
+        <v>2.2333333333333338</v>
       </c>
       <c r="P8">
         <v>0.06</v>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="S8">
         <f t="shared" si="1"/>
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -1379,7 +1379,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="E9" s="1">
         <v>-1</v>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="N9" s="1">
         <f t="shared" si="0"/>
-        <v>2.1166666666666663</v>
+        <v>1.7166666666666668</v>
       </c>
       <c r="P9">
         <v>0.06</v>
@@ -1414,14 +1414,16 @@
       </c>
       <c r="S9">
         <f t="shared" si="1"/>
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1451,7 +1453,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="1">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="E11" s="1">
         <v>7</v>
@@ -1476,7 +1478,7 @@
       </c>
       <c r="N11" s="1">
         <f t="shared" si="0"/>
-        <v>-9.7000000000000011</v>
+        <v>-9.9</v>
       </c>
       <c r="P11">
         <v>0.06</v>
@@ -1486,7 +1488,7 @@
       </c>
       <c r="S11">
         <f t="shared" si="1"/>
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -1500,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="E12" s="1">
         <v>4</v>
@@ -1525,7 +1527,7 @@
       </c>
       <c r="N12" s="1">
         <f>C12-D12*20-E12*0.8-F12*0.6-H12*5+I12*10+J12/300</f>
-        <v>-7.0000000000000009</v>
+        <v>-7.3999999999999995</v>
       </c>
       <c r="P12">
         <v>0.06</v>
@@ -1534,8 +1536,8 @@
         <v>5</v>
       </c>
       <c r="S12">
-        <f>ROUND(Q12*0.02+P12+R12, 2)</f>
-        <v>0.16</v>
+        <f t="shared" si="1"/>
+        <v>0.18</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -1549,7 +1551,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="1">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
@@ -1574,7 +1576,7 @@
       </c>
       <c r="N13" s="1">
         <f t="shared" si="0"/>
-        <v>-6.7000000000000011</v>
+        <v>-7.3000000000000007</v>
       </c>
       <c r="P13">
         <v>0.06</v>
@@ -1584,7 +1586,7 @@
       </c>
       <c r="S13">
         <f t="shared" si="1"/>
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -1598,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -1623,7 +1625,7 @@
       </c>
       <c r="N14" s="1">
         <f t="shared" si="0"/>
-        <v>-5.5333333333333332</v>
+        <v>-6.1333333333333337</v>
       </c>
       <c r="P14">
         <v>0.06</v>
@@ -1633,7 +1635,7 @@
       </c>
       <c r="S14">
         <f t="shared" si="1"/>
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -1647,7 +1649,7 @@
         <v>-6</v>
       </c>
       <c r="D15" s="1">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="E15" s="1">
         <v>-4</v>
@@ -1672,7 +1674,7 @@
       </c>
       <c r="N15" s="1">
         <f t="shared" si="0"/>
-        <v>-6.5833333333333313</v>
+        <v>-7.5833333333333313</v>
       </c>
       <c r="P15">
         <v>0.06</v>
@@ -1682,7 +1684,7 @@
       </c>
       <c r="S15">
         <f t="shared" si="1"/>
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -1696,7 +1698,7 @@
         <v>-7</v>
       </c>
       <c r="D16" s="1">
-        <v>0.39</v>
+        <v>0.44</v>
       </c>
       <c r="E16" s="1">
         <v>-5</v>
@@ -1721,7 +1723,7 @@
       </c>
       <c r="N16" s="1">
         <f t="shared" si="0"/>
-        <v>-6.3833333333333337</v>
+        <v>-7.3833333333333337</v>
       </c>
       <c r="P16">
         <v>0.06</v>
@@ -1734,7 +1736,7 @@
       </c>
       <c r="S16">
         <f t="shared" si="1"/>
-        <v>0.39</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -1748,7 +1750,7 @@
         <v>-8</v>
       </c>
       <c r="D17" s="1">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="E17" s="1">
         <v>-6</v>
@@ -1773,7 +1775,7 @@
       </c>
       <c r="N17" s="1">
         <f t="shared" si="0"/>
-        <v>-6.1833333333333327</v>
+        <v>-7.1833333333333327</v>
       </c>
       <c r="P17">
         <v>0.06</v>
@@ -1786,7 +1788,7 @@
       </c>
       <c r="S17">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -1807,6 +1809,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="S18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -1819,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -1841,7 +1847,7 @@
       </c>
       <c r="N19" s="1">
         <f t="shared" si="0"/>
-        <v>-6.166666666666667</v>
+        <v>-5.5666666666666673</v>
       </c>
       <c r="P19">
         <v>0.06</v>
@@ -1851,7 +1857,7 @@
       </c>
       <c r="S19">
         <f t="shared" si="1"/>
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -1872,6 +1878,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="S20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -1884,7 +1894,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="1">
-        <v>0.39</v>
+        <v>0.46</v>
       </c>
       <c r="E21" s="1">
         <v>-13</v>
@@ -1909,17 +1919,17 @@
       </c>
       <c r="N21" s="1">
         <f t="shared" si="0"/>
-        <v>14.833333333333332</v>
+        <v>13.433333333333332</v>
       </c>
       <c r="P21">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="Q21">
         <v>16.535399999999999</v>
       </c>
       <c r="S21">
         <f t="shared" si="1"/>
-        <v>0.39</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -1933,7 +1943,7 @@
         <v>6</v>
       </c>
       <c r="D22" s="1">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
       <c r="E22" s="1">
         <v>-10</v>
@@ -1958,17 +1968,17 @@
       </c>
       <c r="N22" s="1">
         <f t="shared" si="0"/>
-        <v>11.499999999999998</v>
+        <v>10.499999999999998</v>
       </c>
       <c r="P22">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="Q22">
         <v>12.795299999999999</v>
       </c>
       <c r="S22">
         <f t="shared" si="1"/>
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">

--- a/changes/9mm-barrels.xlsx
+++ b/changes/9mm-barrels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816851E2-1A8C-45F2-967B-A9D42BF874A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438D6759-BA52-484F-B472-30FA17C5B631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1030,7 +1030,7 @@
   <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1897,10 +1897,10 @@
         <v>0.46</v>
       </c>
       <c r="E21" s="1">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="F21" s="1">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1">
@@ -1919,7 +1919,7 @@
       </c>
       <c r="N21" s="1">
         <f t="shared" si="0"/>
-        <v>13.433333333333332</v>
+        <v>12.033333333333333</v>
       </c>
       <c r="P21">
         <v>0.08</v>
@@ -1940,7 +1940,7 @@
         <v>50</v>
       </c>
       <c r="C22" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D22" s="1">
         <v>0.37</v>
@@ -1949,7 +1949,7 @@
         <v>-10</v>
       </c>
       <c r="F22" s="1">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="N22" s="1">
         <f t="shared" si="0"/>
-        <v>10.499999999999998</v>
+        <v>9.1</v>
       </c>
       <c r="P22">
         <v>0.08</v>

--- a/changes/9mm-barrels.xlsx
+++ b/changes/9mm-barrels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438D6759-BA52-484F-B472-30FA17C5B631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E712A72A-055F-43CD-AAAF-6A86B4E54A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1030,7 +1030,7 @@
   <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1946,10 +1946,10 @@
         <v>0.37</v>
       </c>
       <c r="E22" s="1">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="F22" s="1">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="N22" s="1">
         <f t="shared" si="0"/>
-        <v>9.1</v>
+        <v>7.6999999999999993</v>
       </c>
       <c r="P22">
         <v>0.08</v>

--- a/changes/9mm-barrels.xlsx
+++ b/changes/9mm-barrels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E712A72A-055F-43CD-AAAF-6A86B4E54A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEE323D-7D41-4F78-9113-05C11BD4B6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1030,7 +1030,7 @@
   <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,16 +1450,16 @@
         <v>32</v>
       </c>
       <c r="C11" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1">
         <v>0.13</v>
       </c>
       <c r="E11" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="N11" s="1">
         <f t="shared" si="0"/>
-        <v>-9.9</v>
+        <v>-10.3</v>
       </c>
       <c r="P11">
         <v>0.06</v>
@@ -1499,16 +1499,16 @@
         <v>44</v>
       </c>
       <c r="C12" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1">
         <v>0.18</v>
       </c>
       <c r="E12" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F12" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="N12" s="1">
         <f>C12-D12*20-E12*0.8-F12*0.6-H12*5+I12*10+J12/300</f>
-        <v>-7.3999999999999995</v>
+        <v>-8.1999999999999993</v>
       </c>
       <c r="P12">
         <v>0.06</v>
@@ -1548,13 +1548,13 @@
         <v>34</v>
       </c>
       <c r="C13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="1">
         <v>0.26</v>
       </c>
       <c r="E13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="N13" s="1">
         <f t="shared" si="0"/>
-        <v>-7.3000000000000007</v>
+        <v>-7.1000000000000005</v>
       </c>
       <c r="P13">
         <v>0.06</v>
@@ -1597,16 +1597,16 @@
         <v>36</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1">
         <v>0.27</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="N14" s="1">
         <f t="shared" si="0"/>
-        <v>-6.1333333333333337</v>
+        <v>-6.9333333333333336</v>
       </c>
       <c r="P14">
         <v>0.06</v>
@@ -1646,16 +1646,16 @@
         <v>38</v>
       </c>
       <c r="C15" s="1">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="D15" s="1">
         <v>0.43</v>
       </c>
       <c r="E15" s="1">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="F15" s="1">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="N15" s="1">
         <f t="shared" si="0"/>
-        <v>-7.5833333333333313</v>
+        <v>-7.3833333333333337</v>
       </c>
       <c r="P15">
         <v>0.06</v>
@@ -1695,16 +1695,16 @@
         <v>40</v>
       </c>
       <c r="C16" s="1">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="D16" s="1">
         <v>0.44</v>
       </c>
       <c r="E16" s="1">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="F16" s="1">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="N16" s="1">
         <f t="shared" si="0"/>
-        <v>-7.3833333333333337</v>
+        <v>-7.1833333333333345</v>
       </c>
       <c r="P16">
         <v>0.06</v>
@@ -1747,16 +1747,16 @@
         <v>42</v>
       </c>
       <c r="C17" s="1">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="D17" s="1">
         <v>0.45</v>
       </c>
       <c r="E17" s="1">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="F17" s="1">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="N17" s="1">
         <f t="shared" si="0"/>
-        <v>-7.1833333333333327</v>
+        <v>-6.9833333333333334</v>
       </c>
       <c r="P17">
         <v>0.06</v>

--- a/changes/9mm-barrels.xlsx
+++ b/changes/9mm-barrels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEE323D-7D41-4F78-9113-05C11BD4B6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63900BD7-123F-4730-A090-74D435BF6A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>new</t>
   </si>
@@ -186,6 +186,24 @@
   </si>
   <si>
     <t>Steyr AUG Para 9x19 325mm Threaded</t>
+  </si>
+  <si>
+    <t>ump9_std_200mm_barrel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMP 9x19 8" </t>
+  </si>
+  <si>
+    <t>ump9_std_203mm_barrel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMP 9x19 8" Threaded </t>
+  </si>
+  <si>
+    <t>hk_usc_419mm_9x19_barrel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HK USC 9x19 16.5" </t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1048,7 @@
   <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,7 +1208,7 @@
         <v>1200</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" ref="N4:N22" si="0">C4-D4*20-E4*0.8-F4*0.6-H4*5+I4*10+J4/300</f>
+        <f t="shared" ref="N4:N26" si="0">C4-D4*20-E4*0.8-F4*0.6-H4*5+I4*10+J4/300</f>
         <v>8.2333333333333343</v>
       </c>
       <c r="P4">
@@ -1200,7 +1218,7 @@
         <v>4.5</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S22" si="1">ROUND(Q4*0.023+P4+R4, 2)</f>
+        <f t="shared" ref="S4:S26" si="1">ROUND(Q4*0.023+P4+R4, 2)</f>
         <v>0.16</v>
       </c>
     </row>
@@ -1982,16 +2000,152 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N23" s="1"/>
+      <c r="N23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N24" s="1"/>
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0.24</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>-25</v>
+      </c>
+      <c r="M24">
+        <v>500</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.8833333333333329</v>
+      </c>
+      <c r="P24">
+        <v>0.06</v>
+      </c>
+      <c r="Q24">
+        <v>8</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="1"/>
+        <v>0.24</v>
+      </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N25" s="1"/>
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25">
+        <v>-1</v>
+      </c>
+      <c r="D25">
+        <v>0.24</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0.1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>-25</v>
+      </c>
+      <c r="M25">
+        <v>600</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.3833333333333329</v>
+      </c>
+      <c r="P25">
+        <v>0.06</v>
+      </c>
+      <c r="Q25">
+        <v>8</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="1"/>
+        <v>0.24</v>
+      </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N26" s="1"/>
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26">
+        <v>-4</v>
+      </c>
+      <c r="D26">
+        <v>0.44</v>
+      </c>
+      <c r="E26">
+        <v>-3</v>
+      </c>
+      <c r="F26">
+        <v>-2</v>
+      </c>
+      <c r="H26">
+        <v>-0.1</v>
+      </c>
+      <c r="I26">
+        <v>0.1</v>
+      </c>
+      <c r="J26">
+        <v>275</v>
+      </c>
+      <c r="M26">
+        <v>1000</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.7833333333333341</v>
+      </c>
+      <c r="P26">
+        <v>0.06</v>
+      </c>
+      <c r="Q26">
+        <v>16.5</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="1"/>
+        <v>0.44</v>
+      </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N27" s="1"/>

--- a/changes/9mm-barrels.xlsx
+++ b/changes/9mm-barrels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63900BD7-123F-4730-A090-74D435BF6A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8C5FCA-793E-4C39-A82C-F9BE7591DAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,14 +1156,14 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>-61</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3" s="1">
         <f>C3-D3*20-E3*0.8-F3*0.6-H3*5+I3*10+J3/300</f>
-        <v>13.2</v>
+        <v>12.996666666666666</v>
       </c>
       <c r="P3">
         <v>0.06</v>
@@ -1202,14 +1202,14 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>25</v>
+        <v>-57</v>
       </c>
       <c r="M4">
         <v>1200</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" ref="N4:N26" si="0">C4-D4*20-E4*0.8-F4*0.6-H4*5+I4*10+J4/300</f>
-        <v>8.2333333333333343</v>
+        <v>7.96</v>
       </c>
       <c r="P4">
         <v>0.06</v>
@@ -1248,14 +1248,14 @@
         <v>0.04</v>
       </c>
       <c r="J5">
-        <v>100</v>
+        <v>-14</v>
       </c>
       <c r="M5">
         <v>1500</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="0"/>
-        <v>11.833333333333336</v>
+        <v>11.453333333333335</v>
       </c>
       <c r="P5">
         <v>0.06</v>
@@ -1294,14 +1294,14 @@
         <v>0.1</v>
       </c>
       <c r="J6">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="M6">
         <v>3000</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="0"/>
-        <v>-13.600000000000001</v>
+        <v>-14.133333333333335</v>
       </c>
       <c r="P6">
         <v>0.06</v>
@@ -1364,7 +1364,7 @@
         <v>0.1</v>
       </c>
       <c r="J8" s="1">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="N8" s="1">
         <f t="shared" si="0"/>
-        <v>2.2333333333333338</v>
+        <v>2.0566666666666671</v>
       </c>
       <c r="P8">
         <v>0.06</v>

--- a/changes/9mm-barrels.xlsx
+++ b/changes/9mm-barrels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8C5FCA-793E-4C39-A82C-F9BE7591DAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED78244-5E31-4470-95CA-9C5F14201B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,10 +1707,10 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1">
         <v>-4</v>
@@ -1759,16 +1759,16 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1">
         <v>-5</v>
       </c>
       <c r="D17" s="1">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="E17" s="1">
         <v>-4</v>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="N17" s="1">
         <f t="shared" si="0"/>
-        <v>-6.9833333333333334</v>
+        <v>-7.1833333333333327</v>
       </c>
       <c r="P17">
         <v>0.06</v>
